--- a/ProyectoWeb/11. PlanificacionSprint1.xlsx
+++ b/ProyectoWeb/11. PlanificacionSprint1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFEF34-2085-419B-958E-ABDEC3D7C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B21D76-8277-487B-BF8A-1BD0B02107D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1896" windowWidth="21144" windowHeight="9948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1896" windowWidth="21144" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -1978,7 +1978,22 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3084,7 +3099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3616,7 +3631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4074,7 +4089,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4147,7 +4162,7 @@
         <v>19.759999999999998</v>
       </c>
       <c r="D5" s="16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -4163,7 +4178,9 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>18.64</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>19</v>
+      </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -4178,7 +4195,9 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>17.52</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>19</v>
+      </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -4193,7 +4212,9 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16">
+        <v>18</v>
+      </c>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -4208,7 +4229,9 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>15.28</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16">
+        <v>16</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -4223,7 +4246,9 @@
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
         <v>14.16</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>12</v>
+      </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
